--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_522.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_522.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d243898-Reviews-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Motel-6-Anaheim-Fullerton-East.h50277.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_522.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_522.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,333 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r461245184-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>243898</t>
+  </si>
+  <si>
+    <t>461245184</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Sketchy</t>
+  </si>
+  <si>
+    <t>Kind of a sketchy place with a lot of colorful people. All stairs access, no elevator. Problems with people in the parking lot at all hours of the night. Found it hard to get a good night's sleep. Smelled like marijuana.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Motel 6 Anaheim - Fullerton East, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Kind of a sketchy place with a lot of colorful people. All stairs access, no elevator. Problems with people in the parking lot at all hours of the night. Found it hard to get a good night's sleep. Smelled like marijuana.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r456951379-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>456951379</t>
+  </si>
+  <si>
+    <t>02/03/2017</t>
+  </si>
+  <si>
+    <t>I'm Impressed!</t>
+  </si>
+  <si>
+    <t>Rooms are clean. This basic room has the upgrades I seek: upgraded wood- or wood-type floors, bathrooms with granite and white oval sinks.  flat screen TV with cable channels, more than ample towels. And the staff!!  Andy and Carolann at the Fullerton West location, right off the 91, were SO friendly and allowed me to have as close to the room I had before which is convenient for me!  They made sure I knew they were there for anything I needed, and how to reach them. I'm really impressed with the quality of the room, AND moreso with the quality of those two staff members!  Thanks Motel 6!</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r425282808-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>425282808</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>Stay like you mean it</t>
+  </si>
+  <si>
+    <t>There are only two reasons I can see to stay here, but they are very good reasons.  First and foremost - price (not value, price).  Second, convenient location. If saving bucks matters, stay here.  If being in Anaheim by the 91 matters, stay here.  But only if you mean it.  If what you really want is frills, bells, whistles and the like, don't stay here.  That said, it's safe, clean, and relatively comfortable.  Oh, and one again, the price can't be beat, and the location is convenient!</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r356221712-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>356221712</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>MY STAY AT MOTEL 6</t>
+  </si>
+  <si>
+    <t>In August of 2016 My wife and I rented a room for two nights because we went to a ball game. The motel is near the freeway. It also has a Dennys next door. that was very good and not high priced it was a short walk that was nice. the rooms were clean , the property was clean The room was clean and neat The employees at the front desK were very polite and helpful on anything that we asked them .</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r324992822-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>324992822</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Wouldn't go back</t>
+  </si>
+  <si>
+    <t>We stayed here one night while visiting the theme parks and would not stay again. Room was small and didn't feel safe. Wifi was not free! Free parking however. Still about a 20 min drive from knots berry farm. Bathroom was good size. Staff were nice</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r320726556-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>320726556</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Small room, poor area</t>
+  </si>
+  <si>
+    <t>Our room was very small.  The bathroom, on the other hand was huge.  There were missing tiles in the shower and the whole shower head was detached from the wall.  There was no counter space.  Our room was across from some type of manufacturing facility.  You could hear the food trucks arrive every morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Anaheim - Fullerton East, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Our room was very small.  The bathroom, on the other hand was huge.  There were missing tiles in the shower and the whole shower head was detached from the wall.  There was no counter space.  Our room was across from some type of manufacturing facility.  You could hear the food trucks arrive every morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r247652583-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>247652583</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>I guess it was ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First of all for 75 dollars a night they could of at least told us that the bed was a double before we booked it 2 adults trying to sleep on it was not the best the room was filthy the next room was smoking pot heavily so it was coming into our room and I'm an asthmatic I guess you get what you paid for I neve had a bad experience at motel 6 until now and the poor girl at the front desk was trying to check people in answer phones by herself </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r241675734-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>241675734</t>
+  </si>
+  <si>
+    <t>11/26/2014</t>
+  </si>
+  <si>
+    <t>It's a Motel 6...</t>
+  </si>
+  <si>
+    <t>Needed to book a last minute hotel since there was a change in plans and this was the cheapest in the area. Paid around $50/night after taxes and fees which is a steal. Anyone staying at a Motel 6 should go in with a "Motel 6 Mentality". This means that it's a place to sleep and bare-minimum. There is no pool, mini-fridge, microwave, hair dryer, kleenex, etc. Our room came with a strange odor and our bed sheets had holes in it.  There was an old tv. No Disney shuttle, no breakfast (however there is coffee in the office).  About a 10-15 minute drive from Disneyland.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r210775273-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>210775273</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Convenient to area</t>
+  </si>
+  <si>
+    <t>This facility is convenient to Cal State Fullerton, Southern California College of Optometry, and the surrounding area.  Located at the junction of the 57 and 91, and there's a doggie day care withing walking distance if needed (the hotel is dog friendly, but if you're going to Disneyland, etc., it's convenient).  The area is industrial, with shopping close by.  The hotel itself is older and in need of upgrading/repair/maintenance.  The rooms are in fair condition, also in need of upgrades.  Overall, fair in pricing, convenient to area and freeways, and the staff is very nice.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r179232906-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>179232906</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Dirty and druggie looking types staying there!!!!</t>
+  </si>
+  <si>
+    <t>It was late so I stayed there because I was being cheap and saving money for Disneyland the next day.  DO NOT DO THIS!  They tried to stick me in a back ally that looked unsafe. I complained and asked to be put near the office.  I stood  in line with scary looking people coming and going.  The clerk was pleasant and understanding. We finally just were happy to get in a room.  Heck its only for 4-5 hours. BAD DECISION!  Dirty!  Blood appearing stuff by the sink. With all the druggie looking types that was very bad.  I threw the bedspread on it. I wonder if they bothered to wash it? It was my fault I stayed.  Bad decision.  Unless you're a druggie or thief do not stay there!!! Sacrifice Disneyland money and stay somewhere nice.  Even if it is just for a few hours and your exhausted!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>It was late so I stayed there because I was being cheap and saving money for Disneyland the next day.  DO NOT DO THIS!  They tried to stick me in a back ally that looked unsafe. I complained and asked to be put near the office.  I stood  in line with scary looking people coming and going.  The clerk was pleasant and understanding. We finally just were happy to get in a room.  Heck its only for 4-5 hours. BAD DECISION!  Dirty!  Blood appearing stuff by the sink. With all the druggie looking types that was very bad.  I threw the bedspread on it. I wonder if they bothered to wash it? It was my fault I stayed.  Bad decision.  Unless you're a druggie or thief do not stay there!!! Sacrifice Disneyland money and stay somewhere nice.  Even if it is just for a few hours and your exhausted!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r166309971-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>166309971</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>Not very clean</t>
+  </si>
+  <si>
+    <t>Had to stay here since it was our only option.  This place is not very well kept.  We checked out one day thinking we werent coming back but decided to just stay a extra night later that evening.  We asked for the same room, what was disturbing is my wife had accidentally gotten some nail polish on the sheet the night before.  The room look refreshed but the same stain was on the sheet from the night previous, I think they need to change the sheets.  The service however stood out above other motel 6s.  Place just needs to be updated.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r156904660-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>156904660</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>EXCELLENT SERVICE</t>
+  </si>
+  <si>
+    <t>I had an emergency comming off the southwest cheif Amtrak at 630am in Fullerton.The girl at the desk was more than accomodating, and helpful. The room was receintly completely remodeled. Everything was new. and a non smoking room, that didn't smell like stale smoke. When I had an unusual concern, they accomodated me. They "left the Light On for Me".</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r133215215-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>133215215</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>We had a reservation for a first floor, non-smoking late check-in.  We got there at 10:00 p.m. only to be told they had given the room to someone else and would have to take an upper floor.  The problem with that is I am disabled and UNABLE to climb stairs.  The only other room left was a smoking room that stunk like crazy!  It was disgusting.  The carpet was filthy, there were spiders in the bathroom and the whole place was just really dirty! We will NEVER stay at this Motel 6 EVER again.  I recommend to all who read this go someplace else!!!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r123890745-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>123890745</t>
+  </si>
+  <si>
+    <t>01/30/2012</t>
+  </si>
+  <si>
+    <t>Disney Land for Christmas</t>
+  </si>
+  <si>
+    <t>On 12/27/11 my family and I stayed at Motel 6 on Fullerton Avenue in Anaheim. During our stay a cockroach crawled out from under my pillow and they were crawling on the walls. The shower was not cleaned and the sheets were wrinkled and there was a large blood stain on the floor and underneeth the matresses.  The next day 12/28/11 we were going to Hollywood, we had reservations to stay at the Hollywood Tarzana, but since we had a terrible experience at the Motel 6 in Anaheim we decided to drive the 6 hours home.    Once at home I called Motel 6 in Hollywood Tarzana to cancel our reservations. We called after 4 PM and there policy states there is no refund if canceling after 4pm.  The next couple of days we talked to the corporate office and the owner of Motel 6 at Hollywood Tarzana. The owner stated he would not refund the $157.98 do their policy. Now I am not saying we should walk away without paying something, but to not be willing to work with us to find a Win/Win situation was unreasonable.  Unfortunately, this owner charged us the full amount and I consider this a Win/Lose situation. Do to our experience with Motel 6 in the LA area I HIGHLY RECOMMEND Never to stay at a Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>On 12/27/11 my family and I stayed at Motel 6 on Fullerton Avenue in Anaheim. During our stay a cockroach crawled out from under my pillow and they were crawling on the walls. The shower was not cleaned and the sheets were wrinkled and there was a large blood stain on the floor and underneeth the matresses.  The next day 12/28/11 we were going to Hollywood, we had reservations to stay at the Hollywood Tarzana, but since we had a terrible experience at the Motel 6 in Anaheim we decided to drive the 6 hours home.    Once at home I called Motel 6 in Hollywood Tarzana to cancel our reservations. We called after 4 PM and there policy states there is no refund if canceling after 4pm.  The next couple of days we talked to the corporate office and the owner of Motel 6 at Hollywood Tarzana. The owner stated he would not refund the $157.98 do their policy. Now I am not saying we should walk away without paying something, but to not be willing to work with us to find a Win/Win situation was unreasonable.  Unfortunately, this owner charged us the full amount and I consider this a Win/Lose situation. Do to our experience with Motel 6 in the LA area I HIGHLY RECOMMEND Never to stay at a Motel 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r101552740-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>101552740</t>
+  </si>
+  <si>
+    <t>03/25/2011</t>
+  </si>
+  <si>
+    <t>False Statment</t>
+  </si>
+  <si>
+    <t>My husband and I booked a room for two nights because we were out there first for a school meeting and then for his tattoo appointment. When we booked the room it stated that the room have a microwave and a mini fridge. False statement because the room did not have neither but there was lots of space. Also, we asked for a non smoking room due to my allergies and asthma, but the sheets and bedding has holes, burn marks, and rips on it. It was disgusting that we slept on the bed without any blankets. The bed was clear of bed bugs but i spray bug spray in case. The positive thing about it was that the bathroom was clean and the drains was not clog. So if you're plaining to stay for the night, BRING YOUR OWN SHEETS AND BLANKETS.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>My husband and I booked a room for two nights because we were out there first for a school meeting and then for his tattoo appointment. When we booked the room it stated that the room have a microwave and a mini fridge. False statement because the room did not have neither but there was lots of space. Also, we asked for a non smoking room due to my allergies and asthma, but the sheets and bedding has holes, burn marks, and rips on it. It was disgusting that we slept on the bed without any blankets. The bed was clear of bed bugs but i spray bug spray in case. The positive thing about it was that the bathroom was clean and the drains was not clog. So if you're plaining to stay for the night, BRING YOUR OWN SHEETS AND BLANKETS.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r1686656-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>1686656</t>
+  </si>
+  <si>
+    <t>02/29/2004</t>
+  </si>
+  <si>
+    <t>Bed Bugs at Motel 6 in Anaheim off State College</t>
+  </si>
+  <si>
+    <t>I had to write this review to protect anyone else from staying at this hotel. My husband and I were getting our house tented for termites and needed a place that would take a pet.So, we thought no big deal just one night we will stay at the motel6 in town. NOT A GOOD IDEA. My husband and I went to bed around 9pm and he woke up at 11pm and had to go to the bathroom. I thought I saw something run past my eye on my pillow. I jumped out of bed and yelled, "EWE! there is something in the bed." My husband came and killed the bug. Then he pulled back the covers and the bed was FILLED WITH BED BUGS. I didn't even know they really existed.I called down to the front desk and they said, "Oh yes we have had this problem before." I said, "We want our money back and we are out of here!"It was the grossest experience I ever had. I called the health department and they came and busted them the next day!!! Please NO ONE stay there. They have not renevated. They will need to tent and replace ALL THE BEDS. Ofcourse they don't want to spend the money.Hope this protects future travelors!!!! Sincerely, J.M.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had to write this review to protect anyone else from staying at this hotel. My husband and I were getting our house tented for termites and needed a place that would take a pet.So, we thought no big deal just one night we will stay at the motel6 in town. NOT A GOOD IDEA. My husband and I went to bed around 9pm and he woke up at 11pm and had to go to the bathroom. I thought I saw something run past my eye on my pillow. I jumped out of bed and yelled, "EWE! there is something in the bed." My husband came and killed the bug. Then he pulled back the covers and the bed was FILLED WITH BED BUGS. I didn't even know they really existed.I called down to the front desk and they said, "Oh yes we have had this problem before." I said, "We want our money back and we are out of here!"It was the grossest experience I ever had. I called the health department and they came and busted them the next day!!! Please NO ONE stay there. They have not renevated. They will need to tent and replace ALL THE BEDS. Ofcourse they don't want to spend the money.Hope this protects future travelors!!!! Sincerely, J.M.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +975,1014 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_522.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_522.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Ohms35463</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Kind of a sketchy place with a lot of colorful people. All stairs access, no elevator. Problems with people in the parking lot at all hours of the night. Found it hard to get a good night's sleep. Smelled like marijuana.More</t>
   </si>
   <si>
+    <t>Sheryl C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r456951379-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Joe G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r425282808-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>fax2003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r356221712-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>chelseainsch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r324992822-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>We stayed here one night while visiting the theme parks and would not stay again. Room was small and didn't feel safe. Wifi was not free! Free parking however. Still about a 20 min drive from knots berry farm. Bathroom was good size. Staff were nice</t>
   </si>
   <si>
+    <t>Ame W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r320726556-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>Our room was very small.  The bathroom, on the other hand was huge.  There were missing tiles in the shower and the whole shower head was detached from the wall.  There was no counter space.  Our room was across from some type of manufacturing facility.  You could hear the food trucks arrive every morning.More</t>
   </si>
   <si>
+    <t>Peyton M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r247652583-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t xml:space="preserve">First of all for 75 dollars a night they could of at least told us that the bed was a double before we booked it 2 adults trying to sleep on it was not the best the room was filthy the next room was smoking pot heavily so it was coming into our room and I'm an asthmatic I guess you get what you paid for I neve had a bad experience at motel 6 until now and the poor girl at the front desk was trying to check people in answer phones by herself </t>
   </si>
   <si>
+    <t>madcapsules</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r241675734-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>ArizonaOD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r210775273-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Mountainrose8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r179232906-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>It was late so I stayed there because I was being cheap and saving money for Disneyland the next day.  DO NOT DO THIS!  They tried to stick me in a back ally that looked unsafe. I complained and asked to be put near the office.  I stood  in line with scary looking people coming and going.  The clerk was pleasant and understanding. We finally just were happy to get in a room.  Heck its only for 4-5 hours. BAD DECISION!  Dirty!  Blood appearing stuff by the sink. With all the druggie looking types that was very bad.  I threw the bedspread on it. I wonder if they bothered to wash it? It was my fault I stayed.  Bad decision.  Unless you're a druggie or thief do not stay there!!! Sacrifice Disneyland money and stay somewhere nice.  Even if it is just for a few hours and your exhausted!!!!!More</t>
   </si>
   <si>
+    <t>JCStolz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r166309971-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Aerovergalineas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r156904660-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>garrettsmomrules</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r133215215-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>KathyBasye</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r123890745-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
   </si>
   <si>
@@ -438,6 +480,9 @@
     <t>On 12/27/11 my family and I stayed at Motel 6 on Fullerton Avenue in Anaheim. During our stay a cockroach crawled out from under my pillow and they were crawling on the walls. The shower was not cleaned and the sheets were wrinkled and there was a large blood stain on the floor and underneeth the matresses.  The next day 12/28/11 we were going to Hollywood, we had reservations to stay at the Hollywood Tarzana, but since we had a terrible experience at the Motel 6 in Anaheim we decided to drive the 6 hours home.    Once at home I called Motel 6 in Hollywood Tarzana to cancel our reservations. We called after 4 PM and there policy states there is no refund if canceling after 4pm.  The next couple of days we talked to the corporate office and the owner of Motel 6 at Hollywood Tarzana. The owner stated he would not refund the $157.98 do their policy. Now I am not saying we should walk away without paying something, but to not be willing to work with us to find a Win/Win situation was unreasonable.  Unfortunately, this owner charged us the full amount and I consider this a Win/Lose situation. Do to our experience with Motel 6 in the LA area I HIGHLY RECOMMEND Never to stay at a Motel 6.More</t>
   </si>
   <si>
+    <t>YiKEs09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r101552740-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
   </si>
   <si>
@@ -457,6 +502,9 @@
   </si>
   <si>
     <t>My husband and I booked a room for two nights because we were out there first for a school meeting and then for his tattoo appointment. When we booked the room it stated that the room have a microwave and a mini fridge. False statement because the room did not have neither but there was lots of space. Also, we asked for a non smoking room due to my allergies and asthma, but the sheets and bedding has holes, burn marks, and rips on it. It was disgusting that we slept on the bed without any blankets. The bed was clear of bed bugs but i spray bug spray in case. The positive thing about it was that the bathroom was clean and the drains was not clog. So if you're plaining to stay for the night, BRING YOUR OWN SHEETS AND BLANKETS.More</t>
+  </si>
+  <si>
+    <t>JudyMort</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d243898-r1686656-Motel_6_Anaheim_Fullerton_East-Anaheim_California.html</t>
@@ -979,43 +1027,47 @@
       <c r="A2" t="n">
         <v>11149</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1033,56 +1085,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>11149</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1100,50 +1156,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>11149</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1157,50 +1217,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>11149</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1218,41 +1282,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>11149</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -1271,50 +1339,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>11149</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1332,47 +1404,51 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>11149</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
@@ -1401,50 +1477,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>11149</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1462,50 +1542,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>11149</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -1529,41 +1613,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>11149</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1592,50 +1680,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11149</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -1659,50 +1751,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11149</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1726,50 +1822,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11149</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -1793,50 +1893,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>11149</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -1860,50 +1964,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>11149</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -1927,41 +2035,45 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>11149</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1980,7 +2092,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
